--- a/artfynd/A 33836-2020.xlsx
+++ b/artfynd/A 33836-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98311539</v>
+        <v>98311551</v>
       </c>
       <c r="B2" t="n">
-        <v>89317</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3242</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>829363.4364056614</v>
+        <v>829179.9247080665</v>
       </c>
       <c r="R2" t="n">
-        <v>7496202.825394301</v>
+        <v>7496187.317602341</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98311551</v>
+        <v>98311539</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>89317</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3242</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>829179.9247080665</v>
+        <v>829363.4364056614</v>
       </c>
       <c r="R3" t="n">
-        <v>7496187.317602341</v>
+        <v>7496202.825394301</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
